--- a/QuickFacts Exports - Merged and Cleaned.xlsx
+++ b/QuickFacts Exports - Merged and Cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Capstone_Project\Coursera_Capstone\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57504473-04DD-492F-997A-0D07BCCEAA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D7C28-865B-44A5-ACCD-9F5501C61628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Transformed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Transformed!$A$1:$BE$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Transformed!$A$1:$BD$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>Fact</t>
   </si>
@@ -377,6 +377,96 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Pop 2019 Est</t>
+  </si>
+  <si>
+    <t>Pop 2010</t>
+  </si>
+  <si>
+    <t>Density 2010</t>
+  </si>
+  <si>
+    <t>2010 Land SqMi</t>
+  </si>
+  <si>
+    <t>Pop Change Prop.</t>
+  </si>
+  <si>
+    <t>Persons under 5 years Prop.</t>
+  </si>
+  <si>
+    <t>Persons under 18 years Prop.</t>
+  </si>
+  <si>
+    <t>Persons 65 years and over Prop.</t>
+  </si>
+  <si>
+    <t>Female persons Prop.</t>
+  </si>
+  <si>
+    <t>White alone Prop.</t>
+  </si>
+  <si>
+    <t>Black or African American alone Prop.</t>
+  </si>
+  <si>
+    <t>American Indian and Alaska Native alone Prop.</t>
+  </si>
+  <si>
+    <t>Asian alone Prop.</t>
+  </si>
+  <si>
+    <t>Native Hawaiian and Other Pacific Islander alone Prop.</t>
+  </si>
+  <si>
+    <t>Two or More Races Prop.</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino Prop.</t>
+  </si>
+  <si>
+    <t>White alone, not Hispanic or Latino Prop.</t>
+  </si>
+  <si>
+    <t>Foreign born persons Prop., 2014-2018</t>
+  </si>
+  <si>
+    <t>Living in same house 1 year ago Prop. of persons age 1 year+, 2014-2018</t>
+  </si>
+  <si>
+    <t>Language other than English spoken at home Prop. of persons age 5 years+, 2014-2018</t>
+  </si>
+  <si>
+    <t>Households with a computer Prop., 2014-2018</t>
+  </si>
+  <si>
+    <t>Households with a broadband Internet subscription Prop., 2014-2018</t>
+  </si>
+  <si>
+    <t>High school graduate or higher Prop. of persons age 25 years+, 2014-2018</t>
+  </si>
+  <si>
+    <t>Bachelor's degree or higher Prop. of persons age 25 years+, 2014-2018</t>
+  </si>
+  <si>
+    <t>With a disability, under age 65 years Prop., 2014-2018</t>
+  </si>
+  <si>
+    <t>Persons  without health insurance, under age 65 years Prop.</t>
+  </si>
+  <si>
+    <t>In civilian labor force, total Prop. of population age 16 years+, 2014-2018</t>
+  </si>
+  <si>
+    <t>In civilian labor force, female Prop. of population age 16 years+, 2014-2018</t>
+  </si>
+  <si>
+    <t>Persons in poverty Prop.</t>
+  </si>
+  <si>
+    <t>Owner-occupied housing unit Prop., 2014-2018</t>
   </si>
 </sst>
 </file>
@@ -4482,10 +4572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E69FAE1-94A4-4863-A3FF-877BF7C2D806}">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4584,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -4505,169 +4595,166 @@
         <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="AG1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="AH1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="AI1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="AJ1" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="AK1" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AL1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AU1" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="AV1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC1" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="BD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4681,166 +4768,163 @@
         <v>199177</v>
       </c>
       <c r="E2" s="1">
-        <v>131152</v>
+        <v>131117</v>
       </c>
       <c r="F2" s="2">
         <v>0.51900000000000002</v>
       </c>
-      <c r="G2" s="1">
-        <v>131117</v>
+      <c r="G2" s="2">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I2" s="2">
-        <v>0.29099999999999998</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>9.9000000000000005E-2</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="K2" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M2" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="S2" s="1">
+        <v>8909</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V2" s="3">
+        <v>281300</v>
+      </c>
+      <c r="W2" s="3">
+        <v>2044</v>
+      </c>
+      <c r="X2" s="3">
+        <v>774</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1272</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>59580</v>
+      </c>
+      <c r="AA2">
+        <v>2.89</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AI2" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N2" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O2" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="T2" s="1">
-        <v>8909</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="W2" s="3">
-        <v>281300</v>
-      </c>
-      <c r="X2" s="3">
-        <v>2044</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>774</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>1272</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>59580</v>
-      </c>
-      <c r="AB2">
-        <v>2.89</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
       <c r="AJ2" s="2">
-        <v>0.11600000000000001</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="AK2" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="AL2" s="2">
         <v>0.622</v>
       </c>
+      <c r="AL2" s="1">
+        <v>233563</v>
+      </c>
       <c r="AM2" s="1">
-        <v>233563</v>
+        <v>618368</v>
       </c>
       <c r="AN2" s="1">
-        <v>618368</v>
+        <v>4106207</v>
       </c>
       <c r="AO2" s="1">
-        <v>4106207</v>
+        <v>705948</v>
       </c>
       <c r="AP2" s="1">
-        <v>705948</v>
-      </c>
-      <c r="AQ2" s="1">
         <v>2507318</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AQ2" s="3">
         <v>17506</v>
       </c>
-      <c r="AS2">
+      <c r="AR2">
         <v>29.4</v>
       </c>
+      <c r="AS2" s="3">
+        <v>89964</v>
+      </c>
       <c r="AT2" s="3">
-        <v>89964</v>
-      </c>
-      <c r="AU2" s="3">
         <v>38770</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AU2" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="AV2" s="1">
+        <v>12723</v>
+      </c>
       <c r="AW2" s="1">
-        <v>12723</v>
+        <v>6217</v>
       </c>
       <c r="AX2" s="1">
-        <v>6217</v>
+        <v>4698</v>
       </c>
       <c r="AY2" s="1">
-        <v>4698</v>
+        <v>3185</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3185</v>
-      </c>
-      <c r="BA2" s="1">
         <v>9024</v>
       </c>
-      <c r="BB2">
+      <c r="BA2">
         <v>983</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BB2" s="1">
         <v>11155</v>
       </c>
-      <c r="BD2" s="4">
+      <c r="BC2" s="4">
         <v>2107.6999999999998</v>
       </c>
-      <c r="BE2">
+      <c r="BD2">
         <v>62.21</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4854,166 +4938,163 @@
         <v>170282</v>
       </c>
       <c r="E3" s="1">
-        <v>135840</v>
+        <v>135234</v>
       </c>
       <c r="F3" s="2">
         <v>0.254</v>
       </c>
-      <c r="G3" s="1">
-        <v>135234</v>
+      <c r="G3" s="2">
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>0.254</v>
       </c>
       <c r="I3" s="2">
-        <v>0.254</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>0.11899999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>0.51100000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="L3" s="2">
-        <v>0.68700000000000006</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N3" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="O3" s="2">
-        <v>0.17799999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="S3" s="2">
         <v>0.63400000000000001</v>
       </c>
-      <c r="T3" s="1">
+      <c r="S3" s="1">
         <v>6806</v>
       </c>
+      <c r="T3" s="2">
+        <v>0.21</v>
+      </c>
       <c r="U3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="V3" s="2">
         <v>0.68899999999999995</v>
       </c>
+      <c r="V3" s="3">
+        <v>337700</v>
+      </c>
       <c r="W3" s="3">
-        <v>337700</v>
+        <v>1890</v>
       </c>
       <c r="X3" s="3">
-        <v>1890</v>
+        <v>561</v>
       </c>
       <c r="Y3" s="3">
-        <v>561</v>
-      </c>
-      <c r="Z3" s="3">
         <v>1199</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="Z3" s="1">
         <v>61548</v>
       </c>
-      <c r="AB3">
+      <c r="AA3">
         <v>2.65</v>
       </c>
+      <c r="AB3" s="2">
+        <v>0.82899999999999996</v>
+      </c>
       <c r="AC3" s="2">
-        <v>0.82899999999999996</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="AD3" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.97399999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="AF3" s="2">
-        <v>0.94</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="AG3" s="2">
-        <v>0.95899999999999996</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="AH3" s="2">
-        <v>0.66600000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AI3" s="2">
-        <v>0.04</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AJ3" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="AK3" s="2">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="AL3" s="2">
         <v>0.63500000000000001</v>
       </c>
+      <c r="AL3" s="1">
+        <v>386577</v>
+      </c>
       <c r="AM3" s="1">
-        <v>386577</v>
+        <v>756299</v>
       </c>
       <c r="AN3" s="1">
-        <v>756299</v>
+        <v>696037</v>
       </c>
       <c r="AO3" s="1">
-        <v>696037</v>
+        <v>2938482</v>
       </c>
       <c r="AP3" s="1">
-        <v>2938482</v>
-      </c>
-      <c r="AQ3" s="1">
         <v>2877227</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AQ3" s="3">
         <v>19749</v>
       </c>
-      <c r="AS3">
+      <c r="AR3">
         <v>22.8</v>
       </c>
+      <c r="AS3" s="3">
+        <v>101079</v>
+      </c>
       <c r="AT3" s="3">
-        <v>101079</v>
-      </c>
-      <c r="AU3" s="3">
         <v>47656</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AU3" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="AV3" s="1">
+        <v>14906</v>
+      </c>
       <c r="AW3" s="1">
-        <v>14906</v>
+        <v>7778</v>
       </c>
       <c r="AX3" s="1">
-        <v>7778</v>
+        <v>5066</v>
       </c>
       <c r="AY3" s="1">
-        <v>5066</v>
+        <v>3446</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3446</v>
+        <v>10641</v>
       </c>
       <c r="BA3" s="1">
-        <v>10641</v>
+        <v>1959</v>
       </c>
       <c r="BB3" s="1">
-        <v>1959</v>
-      </c>
-      <c r="BC3" s="1">
         <v>12131</v>
       </c>
-      <c r="BD3" s="4">
+      <c r="BC3" s="4">
         <v>2488.4</v>
       </c>
-      <c r="BE3">
+      <c r="BD3">
         <v>54.34</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5027,164 +5108,161 @@
         <v>151666</v>
       </c>
       <c r="E4" s="1">
-        <v>127747</v>
+        <v>127921</v>
       </c>
       <c r="F4" s="2">
         <v>0.187</v>
       </c>
-      <c r="G4" s="1">
-        <v>127921</v>
+      <c r="G4" s="2">
+        <v>0.10199999999999999</v>
       </c>
       <c r="H4" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I4" s="2">
-        <v>0.30199999999999999</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>0.51</v>
       </c>
       <c r="K4" s="2">
-        <v>0.51</v>
+        <v>0.439</v>
       </c>
       <c r="L4" s="2">
-        <v>0.439</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="M4" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="N4" s="2">
-        <v>0.01</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>1.4E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="R4" s="2">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="S4" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="T4" s="1">
+      <c r="S4" s="1">
         <v>25752</v>
       </c>
+      <c r="T4" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
       <c r="U4" s="2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="V4" s="2">
         <v>0.44</v>
       </c>
+      <c r="V4" s="3">
+        <v>121500</v>
+      </c>
       <c r="W4" s="3">
-        <v>121500</v>
+        <v>1222</v>
       </c>
       <c r="X4" s="3">
-        <v>1222</v>
+        <v>443</v>
       </c>
       <c r="Y4" s="3">
-        <v>443</v>
-      </c>
-      <c r="Z4" s="3">
         <v>912</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="Z4" s="1">
         <v>51887</v>
       </c>
-      <c r="AB4">
+      <c r="AA4">
         <v>2.75</v>
       </c>
+      <c r="AB4" s="2">
+        <v>0.70799999999999996</v>
+      </c>
       <c r="AC4" s="2">
-        <v>0.70799999999999996</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="AD4" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.92400000000000004</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="AF4" s="2">
-        <v>0.84399999999999997</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="AG4" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.193</v>
       </c>
       <c r="AH4" s="2">
-        <v>0.193</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AI4" s="2">
-        <v>0.11700000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="AJ4" s="2">
-        <v>0.124</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="AK4" s="2">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="AL4" s="2">
         <v>0.60499999999999998</v>
       </c>
+      <c r="AL4" s="1">
+        <v>275297</v>
+      </c>
       <c r="AM4" s="1">
-        <v>275297</v>
+        <v>181234</v>
       </c>
       <c r="AN4" s="1">
-        <v>181234</v>
-      </c>
-      <c r="AO4" s="1">
         <v>16021</v>
       </c>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="1">
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="1">
         <v>1679607</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AQ4" s="3">
         <v>12474</v>
       </c>
-      <c r="AS4">
+      <c r="AR4">
         <v>21.9</v>
       </c>
+      <c r="AS4" s="3">
+        <v>50418</v>
+      </c>
       <c r="AT4" s="3">
-        <v>50418</v>
-      </c>
-      <c r="AU4" s="3">
         <v>22579</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AU4" s="2">
         <v>0.13800000000000001</v>
       </c>
+      <c r="AV4" s="1">
+        <v>5648</v>
+      </c>
       <c r="AW4" s="1">
-        <v>5648</v>
+        <v>2330</v>
       </c>
       <c r="AX4" s="1">
-        <v>2330</v>
+        <v>2711</v>
       </c>
       <c r="AY4" s="1">
-        <v>2711</v>
+        <v>3066</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3066</v>
-      </c>
-      <c r="BA4" s="1">
         <v>2169</v>
       </c>
-      <c r="BB4">
+      <c r="BA4">
         <v>791</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BB4" s="1">
         <v>4502</v>
       </c>
-      <c r="BD4" s="4">
+      <c r="BC4" s="4">
         <v>2387.5</v>
       </c>
-      <c r="BE4">
+      <c r="BD4">
         <v>53.58</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5198,164 +5276,161 @@
         <v>170243</v>
       </c>
       <c r="E5" s="1">
-        <v>144879</v>
+        <v>143986</v>
       </c>
       <c r="F5" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>143986</v>
+      <c r="G5" s="2">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>0.191</v>
       </c>
       <c r="I5" s="2">
-        <v>0.191</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="J5" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.498</v>
       </c>
       <c r="K5" s="2">
-        <v>0.498</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="L5" s="2">
-        <v>0.88900000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>1.6E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="N5" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="P5" s="2">
-        <v>1E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.121</v>
       </c>
       <c r="R5" s="2">
-        <v>0.121</v>
-      </c>
-      <c r="S5" s="2">
         <v>0.8</v>
       </c>
-      <c r="T5" s="1">
+      <c r="S5" s="1">
         <v>7560</v>
       </c>
+      <c r="T5" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="U5" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="V5" s="2">
         <v>0.53100000000000003</v>
       </c>
+      <c r="V5" s="3">
+        <v>338100</v>
+      </c>
       <c r="W5" s="3">
-        <v>338100</v>
+        <v>1676</v>
       </c>
       <c r="X5" s="3">
-        <v>1676</v>
+        <v>459</v>
       </c>
       <c r="Y5" s="3">
-        <v>459</v>
-      </c>
-      <c r="Z5" s="3">
         <v>1278</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="Z5" s="1">
         <v>62796</v>
       </c>
-      <c r="AB5">
+      <c r="AA5">
         <v>2.46</v>
       </c>
+      <c r="AB5" s="2">
+        <v>0.72799999999999998</v>
+      </c>
       <c r="AC5" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="AD5" s="2">
-        <v>0.11</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.95899999999999996</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.89100000000000001</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.96499999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.54500000000000004</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AI5" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AJ5" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>0.7</v>
       </c>
       <c r="AK5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AL5" s="2">
         <v>0.65500000000000003</v>
       </c>
+      <c r="AL5" s="1">
+        <v>374458</v>
+      </c>
       <c r="AM5" s="1">
-        <v>374458</v>
+        <v>1214405</v>
       </c>
       <c r="AN5" s="1">
-        <v>1214405</v>
-      </c>
-      <c r="AO5" s="1">
         <v>3156575</v>
       </c>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="1">
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="1">
         <v>2309761</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AQ5" s="3">
         <v>15542</v>
       </c>
-      <c r="AS5">
+      <c r="AR5">
         <v>20.100000000000001</v>
       </c>
+      <c r="AS5" s="3">
+        <v>62132</v>
+      </c>
       <c r="AT5" s="3">
-        <v>62132</v>
-      </c>
-      <c r="AU5" s="3">
         <v>32440</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AU5" s="2">
         <v>0.16800000000000001</v>
       </c>
+      <c r="AV5" s="1">
+        <v>16299</v>
+      </c>
       <c r="AW5" s="1">
-        <v>16299</v>
+        <v>8414</v>
       </c>
       <c r="AX5" s="1">
-        <v>8414</v>
+        <v>5569</v>
       </c>
       <c r="AY5" s="1">
-        <v>5569</v>
+        <v>1554</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1554</v>
+        <v>13955</v>
       </c>
       <c r="BA5" s="1">
-        <v>13955</v>
+        <v>1460</v>
       </c>
       <c r="BB5" s="1">
-        <v>1460</v>
-      </c>
-      <c r="BC5" s="1">
         <v>13953</v>
       </c>
-      <c r="BD5" s="4">
+      <c r="BC5" s="4">
         <v>2652.8</v>
       </c>
-      <c r="BE5">
+      <c r="BD5">
         <v>54.28</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5369,166 +5444,163 @@
         <v>184463</v>
       </c>
       <c r="E6" s="1">
-        <v>167159</v>
+        <v>161791</v>
       </c>
       <c r="F6" s="2">
         <v>0.104</v>
       </c>
-      <c r="G6" s="1">
-        <v>161791</v>
+      <c r="G6" s="2">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I6" s="2">
-        <v>0.22600000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="J6" s="2">
-        <v>0.153</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="K6" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="L6" s="2">
-        <v>0.80100000000000005</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>2.1999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N6" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>1.4E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q6" s="2">
-        <v>6.0999999999999999E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="R6" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="S6" s="2">
         <v>0.72099999999999997</v>
       </c>
-      <c r="T6" s="1">
+      <c r="S6" s="1">
         <v>12454</v>
       </c>
+      <c r="T6" s="2">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="U6" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="V6" s="2">
         <v>0.51600000000000001</v>
       </c>
+      <c r="V6" s="3">
+        <v>260400</v>
+      </c>
       <c r="W6" s="3">
-        <v>260400</v>
+        <v>1533</v>
       </c>
       <c r="X6" s="3">
-        <v>1533</v>
+        <v>493</v>
       </c>
       <c r="Y6" s="3">
-        <v>493</v>
-      </c>
-      <c r="Z6" s="3">
         <v>1142</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="Z6" s="1">
         <v>71595</v>
       </c>
-      <c r="AB6">
+      <c r="AA6">
         <v>2.46</v>
       </c>
+      <c r="AB6" s="2">
+        <v>0.78600000000000003</v>
+      </c>
       <c r="AC6" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AD6" s="2">
-        <v>0.19800000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.92700000000000005</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="AF6" s="2">
-        <v>0.86299999999999999</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="AG6" s="2">
-        <v>0.90900000000000003</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AH6" s="2">
-        <v>0.28100000000000003</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="AI6" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AJ6" s="2">
-        <v>9.2999999999999999E-2</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="AK6" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="AL6" s="2">
         <v>0.57999999999999996</v>
       </c>
+      <c r="AL6" s="1">
+        <v>364265</v>
+      </c>
       <c r="AM6" s="1">
-        <v>364265</v>
+        <v>1593497</v>
       </c>
       <c r="AN6" s="1">
-        <v>1593497</v>
+        <v>2585411</v>
       </c>
       <c r="AO6" s="1">
-        <v>2585411</v>
+        <v>2580854</v>
       </c>
       <c r="AP6" s="1">
-        <v>2580854</v>
-      </c>
-      <c r="AQ6" s="1">
         <v>2863863</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AQ6" s="3">
         <v>17305</v>
       </c>
-      <c r="AS6">
+      <c r="AR6">
         <v>25.1</v>
       </c>
+      <c r="AS6" s="3">
+        <v>58865</v>
+      </c>
       <c r="AT6" s="3">
-        <v>58865</v>
-      </c>
-      <c r="AU6" s="3">
         <v>31352</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AU6" s="2">
         <v>0.125</v>
       </c>
+      <c r="AV6" s="1">
+        <v>14222</v>
+      </c>
       <c r="AW6" s="1">
-        <v>14222</v>
+        <v>7334</v>
       </c>
       <c r="AX6" s="1">
-        <v>7334</v>
+        <v>4333</v>
       </c>
       <c r="AY6" s="1">
-        <v>4333</v>
+        <v>2091</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2091</v>
+        <v>11208</v>
       </c>
       <c r="BA6" s="1">
-        <v>11208</v>
+        <v>1088</v>
       </c>
       <c r="BB6" s="1">
-        <v>1088</v>
-      </c>
-      <c r="BC6" s="1">
         <v>11915</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BC6" s="4">
         <v>3482.7</v>
       </c>
-      <c r="BE6">
+      <c r="BD6">
         <v>46.46</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5542,166 +5614,163 @@
         <v>185010</v>
       </c>
       <c r="E7" s="1">
-        <v>163936</v>
+        <v>163924</v>
       </c>
       <c r="F7" s="2">
         <v>0.129</v>
       </c>
-      <c r="G7" s="1">
-        <v>163924</v>
+      <c r="G7" s="2">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>0.26600000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>8.7999999999999995E-2</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="L7" s="2">
-        <v>0.45800000000000002</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N7" s="2">
-        <v>0.01</v>
+        <v>6.3E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>6.3E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P7" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="R7" s="2">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="S7" s="2">
         <v>0.156</v>
       </c>
-      <c r="T7" s="1">
+      <c r="S7" s="1">
         <v>4573</v>
       </c>
+      <c r="T7" s="2">
+        <v>0.28199999999999997</v>
+      </c>
       <c r="U7" s="2">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="V7" s="2">
         <v>0.53</v>
       </c>
+      <c r="V7" s="3">
+        <v>348200</v>
+      </c>
       <c r="W7" s="3">
-        <v>348200</v>
+        <v>1807</v>
       </c>
       <c r="X7" s="3">
-        <v>1807</v>
+        <v>454</v>
       </c>
       <c r="Y7" s="3">
-        <v>454</v>
-      </c>
-      <c r="Z7" s="3">
         <v>1429</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="Z7" s="1">
         <v>49624</v>
       </c>
-      <c r="AB7">
+      <c r="AA7">
         <v>3.48</v>
       </c>
+      <c r="AB7" s="2">
+        <v>0.88700000000000001</v>
+      </c>
       <c r="AC7" s="2">
-        <v>0.88700000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AD7" s="2">
-        <v>0.59</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="AF7" s="2">
-        <v>0.79400000000000004</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AG7" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.161</v>
       </c>
       <c r="AH7" s="2">
-        <v>0.161</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AI7" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AJ7" s="2">
-        <v>0.125</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AK7" s="2">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="AL7" s="2">
         <v>0.58799999999999997</v>
       </c>
+      <c r="AL7" s="1">
+        <v>383233</v>
+      </c>
       <c r="AM7" s="1">
-        <v>383233</v>
+        <v>710640</v>
       </c>
       <c r="AN7" s="1">
-        <v>710640</v>
+        <v>4490350</v>
       </c>
       <c r="AO7" s="1">
-        <v>4490350</v>
+        <v>14205730</v>
       </c>
       <c r="AP7" s="1">
-        <v>14205730</v>
-      </c>
-      <c r="AQ7" s="1">
         <v>4833480</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AQ7" s="3">
         <v>28906</v>
       </c>
-      <c r="AS7">
+      <c r="AR7">
         <v>31.3</v>
       </c>
+      <c r="AS7" s="3">
+        <v>61602</v>
+      </c>
       <c r="AT7" s="3">
-        <v>61602</v>
-      </c>
-      <c r="AU7" s="3">
         <v>22237</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AU7" s="2">
         <v>0.14799999999999999</v>
       </c>
+      <c r="AV7" s="1">
+        <v>14177</v>
+      </c>
       <c r="AW7" s="1">
-        <v>14177</v>
+        <v>7333</v>
       </c>
       <c r="AX7" s="1">
-        <v>7333</v>
+        <v>5170</v>
       </c>
       <c r="AY7" s="1">
-        <v>5170</v>
+        <v>9516</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9516</v>
-      </c>
-      <c r="BA7" s="1">
         <v>3781</v>
       </c>
-      <c r="BB7">
+      <c r="BA7">
         <v>723</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BB7" s="1">
         <v>12598</v>
       </c>
-      <c r="BD7" s="4">
+      <c r="BC7" s="4">
         <v>3282.4</v>
       </c>
-      <c r="BE7">
+      <c r="BD7">
         <v>49.94</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5715,166 +5784,163 @@
         <v>174365</v>
       </c>
       <c r="E8" s="1">
-        <v>154931</v>
+        <v>154637</v>
       </c>
       <c r="F8" s="2">
         <v>0.125</v>
       </c>
-      <c r="G8" s="1">
-        <v>154637</v>
+      <c r="G8" s="2">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="I8" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="J8" s="2">
-        <v>0.13900000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="K8" s="2">
-        <v>0.49399999999999999</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="L8" s="2">
-        <v>0.80900000000000005</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="N8" s="2">
-        <v>1.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.7E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.23</v>
       </c>
       <c r="R8" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="S8" s="2">
         <v>0.67300000000000004</v>
       </c>
-      <c r="T8" s="1">
+      <c r="S8" s="1">
         <v>10141</v>
       </c>
+      <c r="T8" s="2">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="U8" s="2">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="V8" s="2">
         <v>0.53300000000000003</v>
       </c>
+      <c r="V8" s="3">
+        <v>223200</v>
+      </c>
       <c r="W8" s="3">
-        <v>223200</v>
+        <v>1533</v>
       </c>
       <c r="X8" s="3">
-        <v>1533</v>
+        <v>536</v>
       </c>
       <c r="Y8" s="3">
-        <v>536</v>
-      </c>
-      <c r="Z8" s="3">
         <v>922</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="Z8" s="1">
         <v>59693</v>
       </c>
-      <c r="AB8">
+      <c r="AA8">
         <v>2.66</v>
       </c>
+      <c r="AB8" s="2">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="AC8" s="2">
-        <v>0.79900000000000004</v>
+        <v>0.223</v>
       </c>
       <c r="AD8" s="2">
-        <v>0.223</v>
+        <v>0.92</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AF8" s="2">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.87</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="AH8" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.112</v>
       </c>
       <c r="AI8" s="2">
-        <v>0.112</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AJ8" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="AK8" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="AL8" s="2">
         <v>0.58599999999999997</v>
       </c>
+      <c r="AL8" s="1">
+        <v>318818</v>
+      </c>
       <c r="AM8" s="1">
-        <v>318818</v>
+        <v>1447571</v>
       </c>
       <c r="AN8" s="1">
-        <v>1447571</v>
+        <v>1708759</v>
       </c>
       <c r="AO8" s="1">
-        <v>1708759</v>
+        <v>1862771</v>
       </c>
       <c r="AP8" s="1">
-        <v>1862771</v>
-      </c>
-      <c r="AQ8" s="1">
         <v>2535426</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AQ8" s="3">
         <v>16105</v>
       </c>
-      <c r="AS8">
+      <c r="AR8">
         <v>22.1</v>
       </c>
+      <c r="AS8" s="3">
+        <v>53619</v>
+      </c>
       <c r="AT8" s="3">
-        <v>53619</v>
-      </c>
-      <c r="AU8" s="3">
         <v>26423</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AU8" s="2">
         <v>0.156</v>
       </c>
+      <c r="AV8" s="1">
+        <v>12341</v>
+      </c>
       <c r="AW8" s="1">
-        <v>12341</v>
+        <v>6042</v>
       </c>
       <c r="AX8" s="1">
-        <v>6042</v>
+        <v>4427</v>
       </c>
       <c r="AY8" s="1">
-        <v>4427</v>
+        <v>2109</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2109</v>
-      </c>
-      <c r="BA8" s="1">
         <v>9448</v>
       </c>
-      <c r="BB8">
+      <c r="BA8">
         <v>948</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BB8" s="1">
         <v>10373</v>
       </c>
-      <c r="BD8" s="4">
+      <c r="BC8" s="4">
         <v>3228.6</v>
       </c>
-      <c r="BE8">
+      <c r="BD8">
         <v>47.9</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5888,166 +5954,163 @@
         <v>140545</v>
       </c>
       <c r="E9" s="1">
-        <v>125922</v>
+        <v>125872</v>
       </c>
       <c r="F9" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>125872</v>
+      <c r="G9" s="2">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>0.28799999999999998</v>
+        <v>0.105</v>
       </c>
       <c r="J9" s="2">
-        <v>0.105</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="L9" s="2">
-        <v>0.85299999999999998</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>6.0999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N9" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
       <c r="O9" s="2">
-        <v>0.04</v>
+        <v>1E-3</v>
       </c>
       <c r="P9" s="2">
-        <v>1E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0.113</v>
       </c>
       <c r="R9" s="2">
-        <v>0.113</v>
-      </c>
-      <c r="S9" s="2">
         <v>0.75700000000000001</v>
       </c>
-      <c r="T9" s="1">
+      <c r="S9" s="1">
         <v>6317</v>
       </c>
+      <c r="T9" s="2">
+        <v>0.108</v>
+      </c>
       <c r="U9" s="2">
-        <v>0.108</v>
-      </c>
-      <c r="V9" s="2">
         <v>0.71199999999999997</v>
       </c>
+      <c r="V9" s="3">
+        <v>224000</v>
+      </c>
       <c r="W9" s="3">
-        <v>224000</v>
+        <v>1687</v>
       </c>
       <c r="X9" s="3">
-        <v>1687</v>
+        <v>617</v>
       </c>
       <c r="Y9" s="3">
-        <v>617</v>
-      </c>
-      <c r="Z9" s="3">
         <v>990</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="Z9" s="1">
         <v>47265</v>
       </c>
-      <c r="AB9">
+      <c r="AA9">
         <v>2.85</v>
       </c>
+      <c r="AB9" s="2">
+        <v>0.84599999999999997</v>
+      </c>
       <c r="AC9" s="2">
-        <v>0.84599999999999997</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.14699999999999999</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="AF9" s="2">
-        <v>0.92300000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.93500000000000005</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="AH9" s="2">
-        <v>0.48499999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AI9" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="AJ9" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="AL9" s="2">
         <v>0.67700000000000005</v>
       </c>
+      <c r="AL9" s="1">
+        <v>245627</v>
+      </c>
       <c r="AM9" s="1">
-        <v>245627</v>
+        <v>604341</v>
       </c>
       <c r="AN9" s="1">
-        <v>604341</v>
+        <v>1402811</v>
       </c>
       <c r="AO9" s="1">
-        <v>1402811</v>
+        <v>3163370</v>
       </c>
       <c r="AP9" s="1">
-        <v>3163370</v>
-      </c>
-      <c r="AQ9" s="1">
         <v>2223381</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AQ9" s="3">
         <v>17097</v>
       </c>
-      <c r="AS9">
+      <c r="AR9">
         <v>21.3</v>
       </c>
+      <c r="AS9" s="3">
+        <v>85318</v>
+      </c>
       <c r="AT9" s="3">
-        <v>85318</v>
-      </c>
-      <c r="AU9" s="3">
         <v>35771</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AU9" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="AV9" s="1">
+        <v>9980</v>
+      </c>
       <c r="AW9" s="1">
-        <v>9980</v>
+        <v>5260</v>
       </c>
       <c r="AX9" s="1">
-        <v>5260</v>
+        <v>3512</v>
       </c>
       <c r="AY9" s="1">
-        <v>3512</v>
+        <v>1475</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1475</v>
-      </c>
-      <c r="BA9" s="1">
         <v>8100</v>
       </c>
-      <c r="BB9">
+      <c r="BA9">
         <v>952</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BB9" s="1">
         <v>8447</v>
       </c>
-      <c r="BD9" s="4">
+      <c r="BC9" s="4">
         <v>2109.8000000000002</v>
       </c>
-      <c r="BE9">
+      <c r="BD9">
         <v>59.66</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6061,166 +6124,163 @@
         <v>159203</v>
       </c>
       <c r="E10" s="1">
-        <v>144427</v>
+        <v>144186</v>
       </c>
       <c r="F10" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G10" s="1">
-        <v>144186</v>
+      <c r="G10" s="2">
+        <v>6.3E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>6.3E-2</v>
+        <v>0.218</v>
       </c>
       <c r="I10" s="2">
-        <v>0.218</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>0.11700000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="K10" s="2">
-        <v>0.504</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="L10" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="M10" s="2">
-        <v>0.10299999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N10" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="O10" s="2">
-        <v>0.25700000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>2.1000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="R10" s="2">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="S10" s="2">
         <v>0.16900000000000001</v>
       </c>
-      <c r="T10" s="1">
+      <c r="S10" s="1">
         <v>4618</v>
       </c>
+      <c r="T10" s="2">
+        <v>0.379</v>
+      </c>
       <c r="U10" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="V10" s="2">
         <v>0.51800000000000002</v>
       </c>
+      <c r="V10" s="3">
+        <v>519600</v>
+      </c>
       <c r="W10" s="3">
-        <v>519600</v>
+        <v>2428</v>
       </c>
       <c r="X10" s="3">
-        <v>2428</v>
+        <v>546</v>
       </c>
       <c r="Y10" s="3">
-        <v>546</v>
-      </c>
-      <c r="Z10" s="3">
         <v>1712</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="Z10" s="1">
         <v>47768</v>
       </c>
-      <c r="AB10">
+      <c r="AA10">
         <v>3.25</v>
       </c>
+      <c r="AB10" s="2">
+        <v>0.90300000000000002</v>
+      </c>
       <c r="AC10" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="AD10" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.93600000000000005</v>
+        <v>0.876</v>
       </c>
       <c r="AF10" s="2">
-        <v>0.876</v>
+        <v>0.82</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" s="2">
-        <v>0.27</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AI10" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AJ10" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="AK10" s="2">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="AL10" s="2">
         <v>0.6</v>
       </c>
+      <c r="AL10" s="1">
+        <v>224951</v>
+      </c>
       <c r="AM10" s="1">
-        <v>224951</v>
+        <v>1383326</v>
       </c>
       <c r="AN10" s="1">
-        <v>1383326</v>
+        <v>4108104</v>
       </c>
       <c r="AO10" s="1">
-        <v>4108104</v>
+        <v>4546375</v>
       </c>
       <c r="AP10" s="1">
-        <v>4546375</v>
-      </c>
-      <c r="AQ10" s="1">
         <v>1765733</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AQ10" s="3">
         <v>11819</v>
       </c>
-      <c r="AS10">
+      <c r="AR10">
         <v>33.299999999999997</v>
       </c>
+      <c r="AS10" s="3">
+        <v>80093</v>
+      </c>
       <c r="AT10" s="3">
-        <v>80093</v>
-      </c>
-      <c r="AU10" s="3">
         <v>31825</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="AU10" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
+      <c r="AV10" s="1">
+        <v>10978</v>
+      </c>
       <c r="AW10" s="1">
-        <v>10978</v>
+        <v>6167</v>
       </c>
       <c r="AX10" s="1">
-        <v>6167</v>
+        <v>3421</v>
       </c>
       <c r="AY10" s="1">
-        <v>3421</v>
+        <v>6869</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6869</v>
-      </c>
-      <c r="BA10" s="1">
         <v>3477</v>
       </c>
-      <c r="BB10">
+      <c r="BA10">
         <v>705</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BB10" s="1">
         <v>9496</v>
       </c>
-      <c r="BD10" s="4">
+      <c r="BC10" s="4">
         <v>3181.3</v>
       </c>
-      <c r="BE10">
+      <c r="BD10">
         <v>45.32</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6234,166 +6294,163 @@
         <v>143268</v>
       </c>
       <c r="E11" s="1">
-        <v>131547</v>
+        <v>129877</v>
       </c>
       <c r="F11" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G11" s="1">
-        <v>129877</v>
+      <c r="G11" s="2">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I11" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.128</v>
       </c>
       <c r="J11" s="2">
-        <v>0.128</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="L11" s="2">
-        <v>0.78400000000000003</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N11" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="P11" s="2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.01</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="R11" s="2">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="S11" s="2">
         <v>0.108</v>
       </c>
-      <c r="T11" s="1">
+      <c r="S11" s="1">
         <v>4076</v>
       </c>
+      <c r="T11" s="2">
+        <v>0.27</v>
+      </c>
       <c r="U11" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="V11" s="2">
         <v>0.60299999999999998</v>
       </c>
+      <c r="V11" s="3">
+        <v>123900</v>
+      </c>
       <c r="W11" s="3">
-        <v>123900</v>
+        <v>1290</v>
       </c>
       <c r="X11" s="3">
-        <v>1290</v>
+        <v>473</v>
       </c>
       <c r="Y11" s="3">
-        <v>473</v>
-      </c>
-      <c r="Z11" s="3">
         <v>767</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="Z11" s="1">
         <v>45065</v>
       </c>
-      <c r="AB11">
+      <c r="AA11">
         <v>3.12</v>
       </c>
+      <c r="AB11" s="2">
+        <v>0.871</v>
+      </c>
       <c r="AC11" s="2">
-        <v>0.871</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="AD11" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.88100000000000001</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="AF11" s="2">
-        <v>0.77700000000000002</v>
+        <v>0.753</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.753</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="AH11" s="2">
-        <v>0.30399999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AI11" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="AJ11" s="2">
-        <v>0.28699999999999998</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="AK11" s="2">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="AL11" s="2">
         <v>0.53600000000000003</v>
       </c>
+      <c r="AL11" s="1">
+        <v>434184</v>
+      </c>
       <c r="AM11" s="1">
-        <v>434184</v>
+        <v>1464644</v>
       </c>
       <c r="AN11" s="1">
-        <v>1464644</v>
+        <v>729075</v>
       </c>
       <c r="AO11" s="1">
-        <v>729075</v>
+        <v>2539576</v>
       </c>
       <c r="AP11" s="1">
-        <v>2539576</v>
-      </c>
-      <c r="AQ11" s="1">
         <v>3716780</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AQ11" s="3">
         <v>27589</v>
       </c>
-      <c r="AS11">
+      <c r="AR11">
         <v>19.2</v>
       </c>
+      <c r="AS11" s="3">
+        <v>47279</v>
+      </c>
       <c r="AT11" s="3">
-        <v>47279</v>
-      </c>
-      <c r="AU11" s="3">
         <v>22444</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AU11" s="2">
         <v>0.249</v>
       </c>
+      <c r="AV11" s="1">
+        <v>17964</v>
+      </c>
       <c r="AW11" s="1">
-        <v>17964</v>
+        <v>8943</v>
       </c>
       <c r="AX11" s="1">
-        <v>8943</v>
+        <v>6842</v>
       </c>
       <c r="AY11" s="1">
-        <v>6842</v>
+        <v>14183</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14183</v>
+        <v>2798</v>
       </c>
       <c r="BA11" s="1">
-        <v>2798</v>
+        <v>1201</v>
       </c>
       <c r="BB11" s="1">
-        <v>1201</v>
-      </c>
-      <c r="BC11" s="1">
         <v>15749</v>
       </c>
-      <c r="BD11" s="4">
+      <c r="BC11" s="4">
         <v>2686.5</v>
       </c>
-      <c r="BE11">
+      <c r="BD11">
         <v>48.34</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6407,166 +6464,163 @@
         <v>133997</v>
       </c>
       <c r="E12" s="1">
-        <v>124504</v>
+        <v>124354</v>
       </c>
       <c r="F12" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G12" s="1">
-        <v>124354</v>
+      <c r="G12" s="2">
+        <v>3.9E-2</v>
       </c>
       <c r="H12" s="2">
-        <v>3.9E-2</v>
+        <v>0.129</v>
       </c>
       <c r="I12" s="2">
-        <v>0.129</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="J12" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="K12" s="2">
-        <v>0.52400000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="L12" s="2">
-        <v>0.65900000000000003</v>
+        <v>0.214</v>
       </c>
       <c r="M12" s="2">
-        <v>0.214</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N12" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="O12" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="P12" s="2">
-        <v>1E-3</v>
+        <v>0.04</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="R12" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="S12" s="2">
         <v>0.56899999999999995</v>
       </c>
-      <c r="T12" s="1">
+      <c r="S12" s="1">
         <v>5534</v>
       </c>
+      <c r="T12" s="2">
+        <v>0.111</v>
+      </c>
       <c r="U12" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="V12" s="2">
         <v>0.39400000000000002</v>
       </c>
+      <c r="V12" s="3">
+        <v>154400</v>
+      </c>
       <c r="W12" s="3">
-        <v>154400</v>
+        <v>1289</v>
       </c>
       <c r="X12" s="3">
-        <v>1289</v>
+        <v>470</v>
       </c>
       <c r="Y12" s="3">
-        <v>470</v>
-      </c>
-      <c r="Z12" s="3">
         <v>930</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="Z12" s="1">
         <v>48407</v>
       </c>
-      <c r="AB12">
+      <c r="AA12">
         <v>2.38</v>
       </c>
+      <c r="AB12" s="2">
+        <v>0.68899999999999995</v>
+      </c>
       <c r="AC12" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AD12" s="2">
-        <v>0.16600000000000001</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.91700000000000004</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="AF12" s="2">
-        <v>0.83199999999999996</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="AG12" s="2">
-        <v>0.92200000000000004</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AH12" s="2">
-        <v>0.44600000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AI12" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="AJ12" s="2">
-        <v>0.10100000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="AK12" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="AL12" s="2">
         <v>0.55600000000000005</v>
       </c>
+      <c r="AL12" s="1">
+        <v>391156</v>
+      </c>
       <c r="AM12" s="1">
-        <v>391156</v>
+        <v>2314941</v>
       </c>
       <c r="AN12" s="1">
-        <v>2314941</v>
+        <v>587633</v>
       </c>
       <c r="AO12" s="1">
-        <v>587633</v>
+        <v>1009988</v>
       </c>
       <c r="AP12" s="1">
-        <v>1009988</v>
-      </c>
-      <c r="AQ12" s="1">
         <v>2169422</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AQ12" s="3">
         <v>17211</v>
       </c>
-      <c r="AS12">
+      <c r="AR12">
         <v>18.600000000000001</v>
       </c>
+      <c r="AS12" s="3">
+        <v>36389</v>
+      </c>
       <c r="AT12" s="3">
-        <v>36389</v>
-      </c>
-      <c r="AU12" s="3">
         <v>22388</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="AU12" s="2">
         <v>0.314</v>
       </c>
+      <c r="AV12" s="1">
+        <v>9764</v>
+      </c>
       <c r="AW12" s="1">
-        <v>9764</v>
+        <v>5038</v>
       </c>
       <c r="AX12" s="1">
-        <v>5038</v>
+        <v>3408</v>
       </c>
       <c r="AY12" s="1">
-        <v>3408</v>
+        <v>2811</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2811</v>
+        <v>6327</v>
       </c>
       <c r="BA12" s="1">
-        <v>6327</v>
+        <v>1093</v>
       </c>
       <c r="BB12" s="1">
-        <v>1093</v>
-      </c>
-      <c r="BC12" s="1">
         <v>8012</v>
       </c>
-      <c r="BD12" s="4">
+      <c r="BC12" s="4">
         <v>2028.4</v>
       </c>
-      <c r="BE12">
+      <c r="BD12">
         <v>61.31</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6580,166 +6634,163 @@
         <v>126185</v>
       </c>
       <c r="E13" s="1">
-        <v>121667</v>
+        <v>120623</v>
       </c>
       <c r="F13" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G13" s="1">
-        <v>120623</v>
+      <c r="G13" s="2">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>0.21</v>
       </c>
       <c r="I13" s="2">
-        <v>0.21</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>0.13900000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="L13" s="2">
-        <v>0.64500000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="M13" s="2">
-        <v>0.308</v>
+        <v>2E-3</v>
       </c>
       <c r="N13" s="2">
-        <v>2E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.02</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S13" s="2">
         <v>0.61199999999999999</v>
       </c>
-      <c r="T13" s="1">
+      <c r="S13" s="1">
         <v>6290</v>
       </c>
+      <c r="T13" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
       <c r="U13" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="V13" s="2">
         <v>0.55800000000000005</v>
       </c>
+      <c r="V13" s="3">
+        <v>190800</v>
+      </c>
       <c r="W13" s="3">
-        <v>190800</v>
+        <v>1401</v>
       </c>
       <c r="X13" s="3">
-        <v>1401</v>
+        <v>425</v>
       </c>
       <c r="Y13" s="3">
-        <v>425</v>
-      </c>
-      <c r="Z13" s="3">
         <v>874</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="Z13" s="1">
         <v>50416</v>
       </c>
-      <c r="AB13">
+      <c r="AA13">
         <v>2.42</v>
       </c>
+      <c r="AB13" s="2">
+        <v>0.80300000000000005</v>
+      </c>
       <c r="AC13" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.105</v>
       </c>
       <c r="AD13" s="2">
-        <v>0.105</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="AF13" s="2">
-        <v>0.81799999999999995</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="AH13" s="2">
-        <v>0.36799999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="AI13" s="2">
-        <v>8.8999999999999996E-2</v>
+        <v>0.12</v>
       </c>
       <c r="AJ13" s="2">
-        <v>0.12</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="AK13" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="AL13" s="2">
         <v>0.61</v>
       </c>
+      <c r="AL13" s="1">
+        <v>689870</v>
+      </c>
       <c r="AM13" s="1">
-        <v>689870</v>
+        <v>2300194</v>
       </c>
       <c r="AN13" s="1">
-        <v>2300194</v>
+        <v>1042700</v>
       </c>
       <c r="AO13" s="1">
-        <v>1042700</v>
+        <v>1815750</v>
       </c>
       <c r="AP13" s="1">
-        <v>1815750</v>
-      </c>
-      <c r="AQ13" s="1">
         <v>3434696</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AQ13" s="3">
         <v>27979</v>
       </c>
-      <c r="AS13">
+      <c r="AR13">
         <v>21.6</v>
       </c>
+      <c r="AS13" s="3">
+        <v>50182</v>
+      </c>
       <c r="AT13" s="3">
-        <v>50182</v>
-      </c>
-      <c r="AU13" s="3">
         <v>32224</v>
       </c>
-      <c r="AV13" s="2">
+      <c r="AU13" s="2">
         <v>0.19400000000000001</v>
       </c>
+      <c r="AV13" s="1">
+        <v>17238</v>
+      </c>
       <c r="AW13" s="1">
-        <v>17238</v>
+        <v>8816</v>
       </c>
       <c r="AX13" s="1">
-        <v>8816</v>
+        <v>5987</v>
       </c>
       <c r="AY13" s="1">
-        <v>5987</v>
+        <v>3692</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3692</v>
+        <v>12768</v>
       </c>
       <c r="BA13" s="1">
-        <v>12768</v>
+        <v>1807</v>
       </c>
       <c r="BB13" s="1">
-        <v>1807</v>
-      </c>
-      <c r="BC13" s="1">
         <v>14284</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BC13" s="4">
         <v>2450.1</v>
       </c>
-      <c r="BE13">
+      <c r="BD13">
         <v>49.23</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6753,166 +6804,163 @@
         <v>117979</v>
       </c>
       <c r="E14" s="1">
-        <v>120069</v>
+        <v>117429</v>
       </c>
       <c r="F14" s="2">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="G14" s="1">
-        <v>117429</v>
+      <c r="G14" s="2">
+        <v>6.3E-2</v>
       </c>
       <c r="H14" s="2">
-        <v>6.3E-2</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="I14" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="S14" s="1">
+        <v>8059</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V14" s="3">
+        <v>92300</v>
+      </c>
+      <c r="W14" s="3">
+        <v>945</v>
+      </c>
+      <c r="X14" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>755</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>51660</v>
+      </c>
+      <c r="AA14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AG14" s="2">
         <v>0.21099999999999999</v>
       </c>
-      <c r="J14" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="O14" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P14" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="T14" s="1">
-        <v>8059</v>
-      </c>
-      <c r="U14" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="W14" s="3">
-        <v>92300</v>
-      </c>
-      <c r="X14" s="3">
-        <v>945</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>755</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>51660</v>
-      </c>
-      <c r="AB14">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>0.86899999999999999</v>
-      </c>
       <c r="AH14" s="2">
-        <v>0.21099999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AI14" s="2">
-        <v>0.13800000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="AJ14" s="2">
-        <v>0.123</v>
+        <v>0.622</v>
       </c>
       <c r="AK14" s="2">
-        <v>0.622</v>
-      </c>
-      <c r="AL14" s="2">
         <v>0.58499999999999996</v>
       </c>
+      <c r="AL14" s="1">
+        <v>511601</v>
+      </c>
       <c r="AM14" s="1">
-        <v>511601</v>
+        <v>1956351</v>
       </c>
       <c r="AN14" s="1">
-        <v>1956351</v>
+        <v>2730876</v>
       </c>
       <c r="AO14" s="1">
-        <v>2730876</v>
+        <v>2315670</v>
       </c>
       <c r="AP14" s="1">
-        <v>2315670</v>
-      </c>
-      <c r="AQ14" s="1">
         <v>2871928</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AQ14" s="3">
         <v>23886</v>
       </c>
-      <c r="AS14">
+      <c r="AR14">
         <v>18.8</v>
       </c>
+      <c r="AS14" s="3">
+        <v>38646</v>
+      </c>
       <c r="AT14" s="3">
-        <v>38646</v>
-      </c>
-      <c r="AU14" s="3">
         <v>23714</v>
       </c>
-      <c r="AV14" s="2">
+      <c r="AU14" s="2">
         <v>0.22600000000000001</v>
       </c>
+      <c r="AV14" s="1">
+        <v>9082</v>
+      </c>
       <c r="AW14" s="1">
-        <v>9082</v>
+        <v>4802</v>
       </c>
       <c r="AX14" s="1">
-        <v>4802</v>
-      </c>
-      <c r="AY14" s="1">
         <v>2902</v>
       </c>
-      <c r="AZ14">
+      <c r="AY14">
         <v>903</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="AZ14" s="1">
         <v>7473</v>
       </c>
-      <c r="BB14">
+      <c r="BA14">
         <v>844</v>
       </c>
-      <c r="BC14" s="1">
+      <c r="BB14" s="1">
         <v>7483</v>
       </c>
-      <c r="BD14" s="4">
+      <c r="BC14" s="4">
         <v>2659.6</v>
       </c>
-      <c r="BE14">
+      <c r="BD14">
         <v>44.15</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6926,166 +6974,163 @@
         <v>126813</v>
       </c>
       <c r="E15" s="1">
-        <v>126490</v>
+        <v>126683</v>
       </c>
       <c r="F15" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="1">
-        <v>126683</v>
+      <c r="G15" s="2">
+        <v>0.05</v>
       </c>
       <c r="H15" s="2">
-        <v>0.05</v>
+        <v>0.219</v>
       </c>
       <c r="I15" s="2">
-        <v>0.219</v>
+        <v>0.183</v>
       </c>
       <c r="J15" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q15" s="2">
         <v>0.183</v>
       </c>
-      <c r="K15" s="2">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N15" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O15" s="2">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>4.1000000000000002E-2</v>
-      </c>
       <c r="R15" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="S15" s="2">
         <v>0.67900000000000005</v>
       </c>
-      <c r="T15" s="1">
+      <c r="S15" s="1">
         <v>6401</v>
       </c>
+      <c r="T15" s="2">
+        <v>0.17599999999999999</v>
+      </c>
       <c r="U15" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="V15" s="2">
         <v>0.70099999999999996</v>
       </c>
+      <c r="V15" s="3">
+        <v>695400</v>
+      </c>
       <c r="W15" s="3">
-        <v>695400</v>
+        <v>2831</v>
       </c>
       <c r="X15" s="3">
-        <v>2831</v>
+        <v>679</v>
       </c>
       <c r="Y15" s="3">
-        <v>679</v>
-      </c>
-      <c r="Z15" s="3">
         <v>2008</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="Z15" s="1">
         <v>45777</v>
       </c>
-      <c r="AB15">
+      <c r="AA15">
         <v>2.76</v>
       </c>
+      <c r="AB15" s="2">
+        <v>0.9</v>
+      </c>
       <c r="AC15" s="2">
-        <v>0.9</v>
+        <v>0.23</v>
       </c>
       <c r="AD15" s="2">
-        <v>0.23</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.94599999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="AF15" s="2">
-        <v>0.92100000000000004</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="AG15" s="2">
-        <v>0.93200000000000005</v>
+        <v>0.498</v>
       </c>
       <c r="AH15" s="2">
-        <v>0.498</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AI15" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AK15" s="2">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="AL15" s="2">
         <v>0.57099999999999995</v>
       </c>
+      <c r="AL15" s="1">
+        <v>378468</v>
+      </c>
       <c r="AM15" s="1">
-        <v>378468</v>
+        <v>1050967</v>
       </c>
       <c r="AN15" s="1">
-        <v>1050967</v>
+        <v>1238778</v>
       </c>
       <c r="AO15" s="1">
-        <v>1238778</v>
+        <v>5097661</v>
       </c>
       <c r="AP15" s="1">
-        <v>5097661</v>
-      </c>
-      <c r="AQ15" s="1">
         <v>2880594</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AQ15" s="3">
         <v>22432</v>
       </c>
-      <c r="AS15">
+      <c r="AR15">
         <v>26.3</v>
       </c>
+      <c r="AS15" s="3">
+        <v>105485</v>
+      </c>
       <c r="AT15" s="3">
-        <v>105485</v>
-      </c>
-      <c r="AU15" s="3">
         <v>50747</v>
       </c>
-      <c r="AV15" s="2">
+      <c r="AU15" s="2">
         <v>5.5E-2</v>
       </c>
+      <c r="AV15" s="1">
+        <v>17027</v>
+      </c>
       <c r="AW15" s="1">
-        <v>17027</v>
+        <v>9055</v>
       </c>
       <c r="AX15" s="1">
-        <v>9055</v>
+        <v>5427</v>
       </c>
       <c r="AY15" s="1">
-        <v>5427</v>
+        <v>3642</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3642</v>
+        <v>12679</v>
       </c>
       <c r="BA15" s="1">
-        <v>12679</v>
+        <v>1249</v>
       </c>
       <c r="BB15" s="1">
-        <v>1249</v>
-      </c>
-      <c r="BC15" s="1">
         <v>14969</v>
       </c>
-      <c r="BD15" s="4">
+      <c r="BC15" s="4">
         <v>2302</v>
       </c>
-      <c r="BE15">
+      <c r="BD15">
         <v>55.03</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7099,166 +7144,163 @@
         <v>147344</v>
       </c>
       <c r="E16" s="1">
-        <v>147308</v>
+        <v>147433</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>147433</v>
+      <c r="G16" s="2">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H16" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="I16" s="2">
-        <v>0.28100000000000003</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>9.9000000000000005E-2</v>
+        <v>0.51</v>
       </c>
       <c r="K16" s="2">
-        <v>0.51</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="L16" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="M16" s="2">
-        <v>0.16900000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N16" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="R16" s="2">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="S16" s="2">
         <v>0.49099999999999999</v>
       </c>
-      <c r="T16" s="1">
+      <c r="S16" s="1">
         <v>5799</v>
       </c>
+      <c r="T16" s="2">
+        <v>0.14299999999999999</v>
+      </c>
       <c r="U16" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="V16" s="2">
         <v>0.70499999999999996</v>
       </c>
+      <c r="V16" s="3">
+        <v>172400</v>
+      </c>
       <c r="W16" s="3">
-        <v>172400</v>
+        <v>1653</v>
       </c>
       <c r="X16" s="3">
-        <v>1653</v>
+        <v>614</v>
       </c>
       <c r="Y16" s="3">
-        <v>614</v>
-      </c>
-      <c r="Z16" s="3">
         <v>1011</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="Z16" s="1">
         <v>47360</v>
       </c>
-      <c r="AB16">
+      <c r="AA16">
         <v>3.06</v>
       </c>
+      <c r="AB16" s="2">
+        <v>0.88</v>
+      </c>
       <c r="AC16" s="2">
-        <v>0.88</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AD16" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.9</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="AF16" s="2">
-        <v>0.83199999999999996</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="AG16" s="2">
-        <v>0.84099999999999997</v>
+        <v>0.216</v>
       </c>
       <c r="AH16" s="2">
-        <v>0.216</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AI16" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AJ16" s="2">
-        <v>0.09</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="AK16" s="2">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="AL16" s="2">
         <v>0.64500000000000002</v>
       </c>
+      <c r="AL16" s="1">
+        <v>555937</v>
+      </c>
       <c r="AM16" s="1">
-        <v>555937</v>
+        <v>995850</v>
       </c>
       <c r="AN16" s="1">
-        <v>995850</v>
+        <v>2050101</v>
       </c>
       <c r="AO16" s="1">
-        <v>2050101</v>
+        <v>1981569</v>
       </c>
       <c r="AP16" s="1">
-        <v>1981569</v>
-      </c>
-      <c r="AQ16" s="1">
         <v>1819200</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AQ16" s="3">
         <v>12270</v>
       </c>
-      <c r="AS16">
+      <c r="AR16">
         <v>31.2</v>
       </c>
+      <c r="AS16" s="3">
+        <v>67504</v>
+      </c>
       <c r="AT16" s="3">
-        <v>67504</v>
-      </c>
-      <c r="AU16" s="3">
         <v>26843</v>
       </c>
-      <c r="AV16" s="2">
+      <c r="AU16" s="2">
         <v>0.112</v>
       </c>
+      <c r="AV16" s="1">
+        <v>9580</v>
+      </c>
       <c r="AW16" s="1">
-        <v>9580</v>
+        <v>4833</v>
       </c>
       <c r="AX16" s="1">
-        <v>4833</v>
+        <v>3812</v>
       </c>
       <c r="AY16" s="1">
-        <v>3812</v>
+        <v>3641</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3641</v>
-      </c>
-      <c r="BA16" s="1">
         <v>5476</v>
       </c>
-      <c r="BB16">
+      <c r="BA16">
         <v>635</v>
       </c>
-      <c r="BC16" s="1">
+      <c r="BB16" s="1">
         <v>8582</v>
       </c>
-      <c r="BD16" s="4">
+      <c r="BC16" s="4">
         <v>2373.6</v>
       </c>
-      <c r="BE16">
+      <c r="BD16">
         <v>62.11</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7272,166 +7314,163 @@
         <v>140407</v>
       </c>
       <c r="E17" s="1">
-        <v>141989</v>
+        <v>141527</v>
       </c>
       <c r="F17" s="2">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="G17" s="1">
-        <v>141527</v>
+      <c r="G17" s="2">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.219</v>
       </c>
       <c r="I17" s="2">
-        <v>0.219</v>
+        <v>0.124</v>
       </c>
       <c r="J17" s="2">
-        <v>0.124</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="L17" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="M17" s="2">
-        <v>0.39</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N17" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O17" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="S17" s="2">
         <v>0.52700000000000002</v>
       </c>
-      <c r="T17" s="1">
+      <c r="S17" s="1">
         <v>9085</v>
       </c>
+      <c r="T17" s="2">
+        <v>0.05</v>
+      </c>
       <c r="U17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="V17" s="2">
         <v>0.47</v>
       </c>
+      <c r="V17" s="3">
+        <v>66500</v>
+      </c>
       <c r="W17" s="3">
-        <v>66500</v>
+        <v>974</v>
       </c>
       <c r="X17" s="3">
-        <v>974</v>
+        <v>385</v>
       </c>
       <c r="Y17" s="3">
-        <v>385</v>
-      </c>
-      <c r="Z17" s="3">
         <v>681</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="Z17" s="1">
         <v>57704</v>
       </c>
-      <c r="AB17">
+      <c r="AA17">
         <v>2.21</v>
       </c>
+      <c r="AB17" s="2">
+        <v>0.73299999999999998</v>
+      </c>
       <c r="AC17" s="2">
-        <v>0.73299999999999998</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AD17" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.81399999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="AF17" s="2">
-        <v>0.73</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="AG17" s="2">
-        <v>0.83499999999999996</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="AH17" s="2">
-        <v>0.18099999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AI17" s="2">
-        <v>0.14199999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="AJ17" s="2">
-        <v>0.114</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="AK17" s="2">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="AL17" s="2">
         <v>0.55600000000000005</v>
       </c>
+      <c r="AL17" s="1">
+        <v>206787</v>
+      </c>
       <c r="AM17" s="1">
-        <v>206787</v>
+        <v>3059522</v>
       </c>
       <c r="AN17" s="1">
-        <v>3059522</v>
+        <v>2940712</v>
       </c>
       <c r="AO17" s="1">
-        <v>2940712</v>
+        <v>12234442</v>
       </c>
       <c r="AP17" s="1">
-        <v>12234442</v>
-      </c>
-      <c r="AQ17" s="1">
         <v>870105</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AQ17" s="3">
         <v>6155</v>
       </c>
-      <c r="AS17">
+      <c r="AR17">
         <v>20.7</v>
       </c>
+      <c r="AS17" s="3">
+        <v>31395</v>
+      </c>
       <c r="AT17" s="3">
-        <v>31395</v>
-      </c>
-      <c r="AU17" s="3">
         <v>19092</v>
       </c>
-      <c r="AV17" s="2">
+      <c r="AU17" s="2">
         <v>0.32100000000000001</v>
       </c>
+      <c r="AV17" s="1">
+        <v>10307</v>
+      </c>
       <c r="AW17" s="1">
-        <v>10307</v>
+        <v>5126</v>
       </c>
       <c r="AX17" s="1">
-        <v>5126</v>
+        <v>4275</v>
       </c>
       <c r="AY17" s="1">
-        <v>4275</v>
+        <v>3664</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3664</v>
+        <v>6116</v>
       </c>
       <c r="BA17" s="1">
-        <v>6116</v>
+        <v>1185</v>
       </c>
       <c r="BB17" s="1">
-        <v>1185</v>
-      </c>
-      <c r="BC17" s="1">
         <v>8329</v>
       </c>
-      <c r="BD17" s="4">
+      <c r="BC17" s="4">
         <v>2543.1</v>
       </c>
-      <c r="BE17">
+      <c r="BD17">
         <v>55.65</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7445,166 +7484,163 @@
         <v>125310</v>
       </c>
       <c r="E18" s="1">
-        <v>127630</v>
+        <v>127473</v>
       </c>
       <c r="F18" s="2">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="G18" s="1">
-        <v>127473</v>
+      <c r="G18" s="2">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="I18" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J18" s="2">
-        <v>0.16800000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="K18" s="2">
-        <v>0.52</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="L18" s="2">
-        <v>0.78500000000000003</v>
+        <v>0.106</v>
       </c>
       <c r="M18" s="2">
-        <v>0.106</v>
+        <v>0.01</v>
       </c>
       <c r="N18" s="2">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="P18" s="2">
-        <v>1E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>0.15</v>
       </c>
       <c r="R18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S18" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="T18" s="1">
+      <c r="S18" s="1">
         <v>8999</v>
       </c>
+      <c r="T18" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
       <c r="U18" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="V18" s="2">
         <v>0.56599999999999995</v>
       </c>
+      <c r="V18" s="3">
+        <v>102600</v>
+      </c>
       <c r="W18" s="3">
-        <v>102600</v>
+        <v>1117</v>
       </c>
       <c r="X18" s="3">
-        <v>1117</v>
+        <v>472</v>
       </c>
       <c r="Y18" s="3">
-        <v>472</v>
-      </c>
-      <c r="Z18" s="3">
         <v>790</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="Z18" s="1">
         <v>53312</v>
       </c>
-      <c r="AB18">
+      <c r="AA18">
         <v>2.29</v>
       </c>
+      <c r="AB18" s="2">
+        <v>0.82199999999999995</v>
+      </c>
       <c r="AC18" s="2">
-        <v>0.82199999999999995</v>
+        <v>0.111</v>
       </c>
       <c r="AD18" s="2">
-        <v>0.111</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.84199999999999997</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AF18" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="AG18" s="2">
-        <v>0.90200000000000002</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="AH18" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.108</v>
       </c>
       <c r="AI18" s="2">
-        <v>0.108</v>
+        <v>0.114</v>
       </c>
       <c r="AJ18" s="2">
-        <v>0.114</v>
+        <v>0.624</v>
       </c>
       <c r="AK18" s="2">
-        <v>0.624</v>
-      </c>
-      <c r="AL18" s="2">
         <v>0.58399999999999996</v>
       </c>
+      <c r="AL18" s="1">
+        <v>291106</v>
+      </c>
       <c r="AM18" s="1">
-        <v>291106</v>
+        <v>1641332</v>
       </c>
       <c r="AN18" s="1">
-        <v>1641332</v>
+        <v>2455951</v>
       </c>
       <c r="AO18" s="1">
-        <v>2455951</v>
+        <v>845052</v>
       </c>
       <c r="AP18" s="1">
-        <v>845052</v>
-      </c>
-      <c r="AQ18" s="1">
         <v>2185852</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AQ18" s="3">
         <v>17085</v>
       </c>
-      <c r="AS18">
+      <c r="AR18">
         <v>16.8</v>
       </c>
+      <c r="AS18" s="3">
+        <v>46890</v>
+      </c>
       <c r="AT18" s="3">
-        <v>46890</v>
-      </c>
-      <c r="AU18" s="3">
         <v>27145</v>
       </c>
-      <c r="AV18" s="2">
+      <c r="AU18" s="2">
         <v>0.159</v>
       </c>
+      <c r="AV18" s="1">
+        <v>8993</v>
+      </c>
       <c r="AW18" s="1">
-        <v>8993</v>
+        <v>4706</v>
       </c>
       <c r="AX18" s="1">
-        <v>4706</v>
+        <v>2981</v>
       </c>
       <c r="AY18" s="1">
-        <v>2981</v>
+        <v>1219</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1219</v>
-      </c>
-      <c r="BA18" s="1">
         <v>7161</v>
       </c>
-      <c r="BB18">
+      <c r="BA18">
         <v>835</v>
       </c>
-      <c r="BC18" s="1">
+      <c r="BB18" s="1">
         <v>7406</v>
       </c>
-      <c r="BD18" s="4">
+      <c r="BC18" s="4">
         <v>2118.6</v>
       </c>
-      <c r="BE18">
+      <c r="BD18">
         <v>60.17</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7618,166 +7654,163 @@
         <v>114230</v>
       </c>
       <c r="E19" s="1">
-        <v>116996</v>
+        <v>116250</v>
       </c>
       <c r="F19" s="2">
         <v>-2.4E-2</v>
       </c>
-      <c r="G19" s="1">
-        <v>116250</v>
+      <c r="G19" s="2">
+        <v>6.2E-2</v>
       </c>
       <c r="H19" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7320</v>
+      </c>
+      <c r="T19" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="V19" s="3">
+        <v>127500</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1207</v>
+      </c>
+      <c r="X19" s="3">
+        <v>516</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>789</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>50890</v>
+      </c>
+      <c r="AA19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AC19" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="I19" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="O19" s="2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R19" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="T19" s="1">
-        <v>7320</v>
-      </c>
-      <c r="U19" s="2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="W19" s="3">
-        <v>127500</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1207</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>516</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>789</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>50890</v>
-      </c>
-      <c r="AB19">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>0.80700000000000005</v>
-      </c>
       <c r="AD19" s="2">
-        <v>6.2E-2</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.86799999999999999</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="AF19" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.91</v>
       </c>
       <c r="AG19" s="2">
-        <v>0.91</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="AH19" s="2">
-        <v>0.35799999999999998</v>
+        <v>0.113</v>
       </c>
       <c r="AI19" s="2">
-        <v>0.113</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AJ19" s="2">
-        <v>5.5E-2</v>
+        <v>0.625</v>
       </c>
       <c r="AK19" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="AL19" s="2">
         <v>0.59199999999999997</v>
       </c>
+      <c r="AL19" s="1">
+        <v>383404</v>
+      </c>
       <c r="AM19" s="1">
-        <v>383404</v>
+        <v>2436285</v>
       </c>
       <c r="AN19" s="1">
-        <v>2436285</v>
+        <v>497302</v>
       </c>
       <c r="AO19" s="1">
-        <v>497302</v>
+        <v>2386013</v>
       </c>
       <c r="AP19" s="1">
-        <v>2386013</v>
-      </c>
-      <c r="AQ19" s="1">
         <v>2625327</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AQ19" s="3">
         <v>22415</v>
       </c>
-      <c r="AS19">
+      <c r="AR19">
         <v>17.8</v>
       </c>
+      <c r="AS19" s="3">
+        <v>53405</v>
+      </c>
       <c r="AT19" s="3">
-        <v>53405</v>
-      </c>
-      <c r="AU19" s="3">
         <v>33651</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AU19" s="2">
         <v>0.19600000000000001</v>
       </c>
+      <c r="AV19" s="1">
+        <v>9006</v>
+      </c>
       <c r="AW19" s="1">
-        <v>9006</v>
+        <v>4041</v>
       </c>
       <c r="AX19" s="1">
-        <v>4041</v>
+        <v>3787</v>
       </c>
       <c r="AY19" s="1">
-        <v>3787</v>
+        <v>1810</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1810</v>
-      </c>
-      <c r="BA19" s="1">
         <v>6489</v>
       </c>
-      <c r="BB19">
+      <c r="BA19">
         <v>723</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BB19" s="1">
         <v>7455</v>
       </c>
-      <c r="BD19" s="4">
+      <c r="BC19" s="4">
         <v>1954.4</v>
       </c>
-      <c r="BE19">
+      <c r="BD19">
         <v>59.48</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7791,166 +7824,163 @@
         <v>134510</v>
       </c>
       <c r="E20" s="1">
-        <v>137464</v>
+        <v>137436</v>
       </c>
       <c r="F20" s="2">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="G20" s="1">
-        <v>137436</v>
+      <c r="G20" s="2">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>6.0999999999999999E-2</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I20" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="J20" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="K20" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="L20" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="M20" s="2">
-        <v>0.502</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N20" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O20" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="P20" s="2">
-        <v>1E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="S20" s="2">
         <v>0.38600000000000001</v>
       </c>
-      <c r="T20" s="1">
+      <c r="S20" s="1">
         <v>18734</v>
       </c>
+      <c r="T20" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="U20" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="V20" s="2">
         <v>0.56200000000000006</v>
       </c>
+      <c r="V20" s="3">
+        <v>186400</v>
+      </c>
       <c r="W20" s="3">
-        <v>186400</v>
+        <v>1522</v>
       </c>
       <c r="X20" s="3">
-        <v>1522</v>
+        <v>496</v>
       </c>
       <c r="Y20" s="3">
-        <v>496</v>
-      </c>
-      <c r="Z20" s="3">
         <v>1100</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="Z20" s="1">
         <v>53700</v>
       </c>
-      <c r="AB20">
+      <c r="AA20">
         <v>2.44</v>
       </c>
+      <c r="AB20" s="2">
+        <v>0.80500000000000005</v>
+      </c>
       <c r="AC20" s="2">
-        <v>0.80500000000000005</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD20" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.90400000000000003</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="AF20" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.91200000000000003</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="AH20" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.111</v>
       </c>
       <c r="AI20" s="2">
         <v>0.111</v>
       </c>
       <c r="AJ20" s="2">
-        <v>0.111</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="AK20" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="AL20" s="2">
         <v>0.59499999999999997</v>
       </c>
+      <c r="AL20" s="1">
+        <v>249039</v>
+      </c>
       <c r="AM20" s="1">
-        <v>249039</v>
+        <v>888668</v>
       </c>
       <c r="AN20" s="1">
-        <v>888668</v>
+        <v>508321</v>
       </c>
       <c r="AO20" s="1">
-        <v>508321</v>
+        <v>344723</v>
       </c>
       <c r="AP20" s="1">
-        <v>344723</v>
-      </c>
-      <c r="AQ20" s="1">
         <v>1512476</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AQ20" s="3">
         <v>11053</v>
       </c>
-      <c r="AS20">
+      <c r="AR20">
         <v>22.4</v>
       </c>
+      <c r="AS20" s="3">
+        <v>54550</v>
+      </c>
       <c r="AT20" s="3">
-        <v>54550</v>
-      </c>
-      <c r="AU20" s="3">
         <v>28384</v>
       </c>
-      <c r="AV20" s="2">
+      <c r="AU20" s="2">
         <v>0.158</v>
       </c>
+      <c r="AV20" s="1">
+        <v>8058</v>
+      </c>
       <c r="AW20" s="1">
-        <v>8058</v>
+        <v>3626</v>
       </c>
       <c r="AX20" s="1">
-        <v>3626</v>
+        <v>3473</v>
       </c>
       <c r="AY20" s="1">
-        <v>3473</v>
+        <v>3865</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3865</v>
+        <v>3694</v>
       </c>
       <c r="BA20" s="1">
-        <v>3694</v>
+        <v>1181</v>
       </c>
       <c r="BB20" s="1">
-        <v>1181</v>
-      </c>
-      <c r="BC20" s="1">
         <v>6139</v>
       </c>
-      <c r="BD20" s="4">
+      <c r="BC20" s="4">
         <v>2673.2</v>
       </c>
-      <c r="BE20">
+      <c r="BD20">
         <v>51.41</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7964,166 +7994,163 @@
         <v>110417</v>
       </c>
       <c r="E21" s="1">
-        <v>115150</v>
+        <v>115007</v>
       </c>
       <c r="F21" s="2">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="G21" s="1">
-        <v>115007</v>
+      <c r="G21" s="2">
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H21" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I21" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J21" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="K21" s="2">
-        <v>0.52200000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="L21" s="2">
-        <v>0.59899999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="M21" s="2">
-        <v>0.27</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N21" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="O21" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q21" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R21" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="S21" s="2">
         <v>0.56699999999999995</v>
       </c>
-      <c r="T21" s="1">
+      <c r="S21" s="1">
         <v>5831</v>
       </c>
+      <c r="T21" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
       <c r="U21" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="V21" s="2">
         <v>0.56000000000000005</v>
       </c>
+      <c r="V21" s="3">
+        <v>126400</v>
+      </c>
       <c r="W21" s="3">
-        <v>126400</v>
+        <v>1232</v>
       </c>
       <c r="X21" s="3">
-        <v>1232</v>
+        <v>530</v>
       </c>
       <c r="Y21" s="3">
-        <v>530</v>
-      </c>
-      <c r="Z21" s="3">
         <v>784</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="Z21" s="1">
         <v>46280</v>
       </c>
-      <c r="AB21">
+      <c r="AA21">
         <v>2.39</v>
       </c>
+      <c r="AB21" s="2">
+        <v>0.82899999999999996</v>
+      </c>
       <c r="AC21" s="2">
-        <v>0.82899999999999996</v>
+        <v>0.121</v>
       </c>
       <c r="AD21" s="2">
-        <v>0.121</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.84399999999999997</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AF21" s="2">
-        <v>0.72899999999999998</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="AG21" s="2">
-        <v>0.88800000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="AH21" s="2">
-        <v>0.34699999999999998</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AI21" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AJ21" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="AK21" s="2">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="AL21" s="2">
         <v>0.57599999999999996</v>
       </c>
+      <c r="AL21" s="1">
+        <v>294420</v>
+      </c>
       <c r="AM21" s="1">
-        <v>294420</v>
+        <v>2583302</v>
       </c>
       <c r="AN21" s="1">
-        <v>2583302</v>
+        <v>3634383</v>
       </c>
       <c r="AO21" s="1">
-        <v>3634383</v>
+        <v>1151322</v>
       </c>
       <c r="AP21" s="1">
-        <v>1151322</v>
-      </c>
-      <c r="AQ21" s="1">
         <v>1927703</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AQ21" s="3">
         <v>16663</v>
       </c>
-      <c r="AS21">
+      <c r="AR21">
         <v>17</v>
       </c>
+      <c r="AS21" s="3">
+        <v>50688</v>
+      </c>
       <c r="AT21" s="3">
-        <v>50688</v>
-      </c>
-      <c r="AU21" s="3">
         <v>30158</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AU21" s="2">
         <v>0.20699999999999999</v>
       </c>
+      <c r="AV21" s="1">
+        <v>8053</v>
+      </c>
       <c r="AW21" s="1">
-        <v>8053</v>
+        <v>4332</v>
       </c>
       <c r="AX21" s="1">
-        <v>4332</v>
+        <v>2741</v>
       </c>
       <c r="AY21" s="1">
-        <v>2741</v>
+        <v>1856</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1856</v>
-      </c>
-      <c r="BA21" s="1">
         <v>5602</v>
       </c>
-      <c r="BB21">
+      <c r="BA21">
         <v>807</v>
       </c>
-      <c r="BC21" s="1">
+      <c r="BB21" s="1">
         <v>6573</v>
       </c>
-      <c r="BD21" s="4">
+      <c r="BC21" s="4">
         <v>2395.6</v>
       </c>
-      <c r="BE21">
+      <c r="BD21">
         <v>48.01</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8137,162 +8164,159 @@
         <v>145609</v>
       </c>
       <c r="E22" s="1">
-        <v>153285</v>
+        <v>152871</v>
       </c>
       <c r="F22" s="2">
         <v>-0.05</v>
       </c>
-      <c r="G22" s="1">
-        <v>152871</v>
+      <c r="G22" s="2">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H22" s="2">
-        <v>7.0999999999999994E-2</v>
+        <v>0.249</v>
       </c>
       <c r="I22" s="2">
-        <v>0.249</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J22" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="L22" s="2">
-        <v>0.67400000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="M22" s="2">
-        <v>0.22</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N22" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O22" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>3.9E-2</v>
+        <v>0.18</v>
       </c>
       <c r="R22" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="S22" s="2">
         <v>0.53900000000000003</v>
       </c>
-      <c r="T22" s="1">
+      <c r="S22" s="1">
         <v>8457</v>
       </c>
+      <c r="T22" s="2">
+        <v>0.11899999999999999</v>
+      </c>
       <c r="U22" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="V22" s="2">
         <v>0.54900000000000004</v>
       </c>
+      <c r="V22" s="3">
+        <v>89700</v>
+      </c>
       <c r="W22" s="3">
-        <v>89700</v>
+        <v>1113</v>
       </c>
       <c r="X22" s="3">
-        <v>1113</v>
+        <v>494</v>
       </c>
       <c r="Y22" s="3">
-        <v>494</v>
-      </c>
-      <c r="Z22" s="3">
         <v>752</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="Z22" s="1">
         <v>59403</v>
       </c>
-      <c r="AB22">
+      <c r="AA22">
         <v>2.42</v>
       </c>
+      <c r="AB22" s="2">
+        <v>0.82799999999999996</v>
+      </c>
       <c r="AC22" s="2">
-        <v>0.82799999999999996</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="AD22" s="2">
-        <v>0.20599999999999999</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="AE22" s="2">
-        <v>0.85199999999999998</v>
+        <v>0.753</v>
       </c>
       <c r="AF22" s="2">
-        <v>0.753</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AG22" s="2">
-        <v>0.83899999999999997</v>
+        <v>0.218</v>
       </c>
       <c r="AH22" s="2">
-        <v>0.218</v>
+        <v>0.112</v>
       </c>
       <c r="AI22" s="2">
-        <v>0.112</v>
+        <v>0.09</v>
       </c>
       <c r="AJ22" s="2">
-        <v>0.09</v>
+        <v>0.621</v>
       </c>
       <c r="AK22" s="2">
-        <v>0.621</v>
-      </c>
-      <c r="AL22" s="2">
         <v>0.57899999999999996</v>
       </c>
+      <c r="AL22" s="1">
+        <v>343984</v>
+      </c>
       <c r="AM22" s="1">
-        <v>343984</v>
+        <v>2178927</v>
       </c>
       <c r="AN22" s="1">
-        <v>2178927</v>
+        <v>5385599</v>
       </c>
       <c r="AO22" s="1">
-        <v>5385599</v>
+        <v>1826920</v>
       </c>
       <c r="AP22" s="1">
-        <v>1826920</v>
-      </c>
-      <c r="AQ22" s="1">
         <v>2140183</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AQ22" s="3">
         <v>14188</v>
       </c>
-      <c r="AS22">
+      <c r="AR22">
         <v>21.2</v>
       </c>
+      <c r="AS22" s="3">
+        <v>43066</v>
+      </c>
       <c r="AT22" s="3">
-        <v>43066</v>
-      </c>
-      <c r="AU22" s="3">
         <v>24713</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AU22" s="2">
         <v>0.22600000000000001</v>
       </c>
+      <c r="AV22" s="1">
+        <v>12590</v>
+      </c>
       <c r="AW22" s="1">
-        <v>12590</v>
+        <v>6132</v>
       </c>
       <c r="AX22" s="1">
-        <v>6132</v>
+        <v>5158</v>
       </c>
       <c r="AY22" s="1">
-        <v>5158</v>
+        <v>4039</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4039</v>
+        <v>7805</v>
       </c>
       <c r="BA22" s="1">
-        <v>7805</v>
+        <v>1189</v>
       </c>
       <c r="BB22" s="1">
-        <v>1189</v>
-      </c>
-      <c r="BC22" s="1">
         <v>10503</v>
       </c>
-      <c r="BD22" s="4">
+      <c r="BC22" s="4">
         <v>2502.8000000000002</v>
       </c>
-      <c r="BE22">
+      <c r="BD22">
         <v>61.08</v>
       </c>
     </row>
